--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="21072" windowHeight="11052"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="RIFF" sheetId="3" r:id="rId3"/>
+    <sheet name="RIFF" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Source:</t>
   </si>
@@ -25,27 +24,6 @@
   </si>
   <si>
     <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>2050 business-as-usual</t>
-  </si>
-  <si>
-    <t>Integrative design</t>
-  </si>
-  <si>
-    <t>Energy Use (quadrillion BTU/yr)</t>
-  </si>
-  <si>
-    <t>Percentage Savings in 2050</t>
-  </si>
-  <si>
-    <t>Model End Year</t>
-  </si>
-  <si>
-    <t>Percentage Savings in End Year</t>
   </si>
   <si>
     <t>RIFF Recipient Industrial Fuel Fractions</t>
@@ -118,17 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,24 +121,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,35 +138,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,14 +459,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,72 +489,72 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -619,73 +565,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <f>-B3/B2</f>
-        <v>3.6065573770491806E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <f>B5*(2050-B6)/(2050-2010)</f>
-        <v>1.8032786885245903E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -693,62 +572,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>18</v>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
         <v>0</v>
       </c>
     </row>

--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-Fuel_switching_options_industry</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -54,28 +45,25 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>RMI's analysis indicates that coal could be shifted to natural gas or "waste fuels (thermal)."</t>
-  </si>
-  <si>
-    <t>This seems particularly reasonable for the United States, where natural gas is relatively</t>
-  </si>
-  <si>
-    <t>inexpensive and combustible waste is not commonly used as an industrial fuel source.</t>
-  </si>
-  <si>
-    <t>We do not model combustible waste fuels, so we assume coal is shifted to gas.</t>
-  </si>
-  <si>
-    <t>The model also has the capability to shift natural gas to other fuel types.  The fuel type that</t>
-  </si>
-  <si>
-    <t>makes the most sense in this case is electricity.</t>
-  </si>
-  <si>
     <t>RIFF Recipient Industrial Fuel Fractions for Coal</t>
   </si>
   <si>
     <t>RIFF Recipient Industrial Fuel Fractions for Natural Gas</t>
+  </si>
+  <si>
+    <t>none needed</t>
+  </si>
+  <si>
+    <t>For the U.S., we model this lever as electrification of industry.</t>
+  </si>
+  <si>
+    <t>We previously shifted coal to natural gas (and natural gas to electricity), but</t>
+  </si>
+  <si>
+    <t>more of a priority to model a shift of coal to electricity than coal to natural gas.</t>
+  </si>
+  <si>
+    <t>as interest in exploring net-zero emissions scenarios increased, it became</t>
   </si>
 </sst>
 </file>
@@ -441,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,12 +440,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,27 +453,18 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,11 +472,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
@@ -505,17 +479,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -541,20 +510,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -562,15 +531,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -578,7 +547,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -586,7 +555,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -614,12 +583,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -627,7 +596,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -635,7 +604,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -643,7 +612,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -651,7 +620,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -659,7 +628,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>

--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -16,11 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Rocky Mountain Institute</t>
+  </si>
+  <si>
+    <t>Reinventing Fire</t>
+  </si>
+  <si>
+    <t>http://www.rmi.org/RFGraph-Fuel_switching_options_industry</t>
+  </si>
+  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -45,25 +54,28 @@
     <t>Notes:</t>
   </si>
   <si>
+    <t>RMI's analysis indicates that coal could be shifted to natural gas or "waste fuels (thermal)."</t>
+  </si>
+  <si>
+    <t>This seems particularly reasonable for the United States, where natural gas is relatively</t>
+  </si>
+  <si>
+    <t>inexpensive and combustible waste is not commonly used as an industrial fuel source.</t>
+  </si>
+  <si>
+    <t>We do not model combustible waste fuels, so we assume coal is shifted to gas.</t>
+  </si>
+  <si>
+    <t>The model also has the capability to shift natural gas to other fuel types.  The fuel type that</t>
+  </si>
+  <si>
+    <t>makes the most sense in this case is electricity.</t>
+  </si>
+  <si>
     <t>RIFF Recipient Industrial Fuel Fractions for Coal</t>
   </si>
   <si>
     <t>RIFF Recipient Industrial Fuel Fractions for Natural Gas</t>
-  </si>
-  <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>For the U.S., we model this lever as electrification of industry.</t>
-  </si>
-  <si>
-    <t>We previously shifted coal to natural gas (and natural gas to electricity), but</t>
-  </si>
-  <si>
-    <t>more of a priority to model a shift of coal to electricity than coal to natural gas.</t>
-  </si>
-  <si>
-    <t>as interest in exploring net-zero emissions scenarios increased, it became</t>
   </si>
 </sst>
 </file>
@@ -429,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,12 +452,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,18 +465,27 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,6 +493,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
@@ -479,12 +505,17 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -510,20 +541,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -531,15 +562,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -547,7 +578,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -555,7 +586,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -583,12 +614,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -596,7 +627,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -604,7 +635,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -612,7 +643,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -620,7 +651,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -628,7 +659,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
